--- a/data/trans_dic/P25A$molestias-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Habitat-trans_dic.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07193473518326585</v>
+        <v>0.08105386923240893</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03975896395016942</v>
+        <v>0.04302551919959533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09048548929182895</v>
+        <v>0.09406294353254951</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07113418713658672</v>
+        <v>0.0812068022466174</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06572574289735453</v>
+        <v>0.07174144032449843</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03645572240396421</v>
+        <v>0.03694750421072942</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09475067972446317</v>
+        <v>0.09573290247383612</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1896718704054609</v>
+        <v>0.2018565146917852</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1161541376132113</v>
+        <v>0.1197735286568389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2241898551251369</v>
+        <v>0.2296879000247369</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1571100634880404</v>
+        <v>0.1349707199361785</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1084132684357682</v>
+        <v>0.09644863812483177</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2669072971218034</v>
+        <v>0.2701691326348098</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1667943121214626</v>
+        <v>0.1651117270226657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09878274538262397</v>
+        <v>0.09806008187477974</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2047122861122661</v>
+        <v>0.2050297846604178</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1206450158714815</v>
+        <v>0.118511251783404</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08716371362471192</v>
+        <v>0.08940278469092175</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09209937585993538</v>
+        <v>0.09132232671880421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05116204070461384</v>
+        <v>0.05193925287661082</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04263440952837204</v>
+        <v>0.04470675817369647</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1043639677628222</v>
+        <v>0.1032230573780326</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1114719764308358</v>
+        <v>0.115092792499639</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08406950523343749</v>
+        <v>0.08653655647509534</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1107675255375054</v>
+        <v>0.1122583539885293</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2361834785198596</v>
+        <v>0.2356216271888366</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1759275605867048</v>
+        <v>0.1756297522539838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2003745760075787</v>
+        <v>0.1926269828580433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1982864581627418</v>
+        <v>0.2041858272408607</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1862109488819727</v>
+        <v>0.1769522088976454</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2719209529333961</v>
+        <v>0.2772993151153055</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.205524943407521</v>
+        <v>0.2099700666334222</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1594345274667345</v>
+        <v>0.1576501429740541</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1961428429555877</v>
+        <v>0.2023732769564871</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1305933178432073</v>
+        <v>0.1326311861126286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06724213858986117</v>
+        <v>0.0645632885239469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1655095198664821</v>
+        <v>0.1645527634881589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05090736233913305</v>
+        <v>0.06996704600050194</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01776223994512192</v>
+        <v>0.009920531039559949</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01491662277257774</v>
+        <v>0.01482211561989887</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1194723453086262</v>
+        <v>0.1272752077144302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05795153967744439</v>
+        <v>0.05535022500428779</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1209200681471255</v>
+        <v>0.1246096203092842</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2675533851902686</v>
+        <v>0.2675510610701529</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1789723297952304</v>
+        <v>0.1723696016390495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3199862576103423</v>
+        <v>0.3109684895656395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2718909896323424</v>
+        <v>0.2695662670827399</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1119019534588575</v>
+        <v>0.1047746436837899</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1329537270609495</v>
+        <v>0.141856995666622</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2404835734719202</v>
+        <v>0.2411522408573963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1323660416733562</v>
+        <v>0.1291593112370263</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2254367559124738</v>
+        <v>0.235613302312247</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1942832584460035</v>
+        <v>0.1861936617884681</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06694219710746366</v>
+        <v>0.06682896874312064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08085920750987891</v>
+        <v>0.08562252541824023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1437910189300147</v>
+        <v>0.138440324598138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09500069057931064</v>
+        <v>0.08937494755951923</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09167726000768342</v>
+        <v>0.0916609385314697</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1881005749755259</v>
+        <v>0.1924531539727946</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08934057896323691</v>
+        <v>0.08882168750047764</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09969255158252736</v>
+        <v>0.09935666186838631</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3202485709072575</v>
+        <v>0.3233486641515863</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1563385066440849</v>
+        <v>0.1550410659643683</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1854825354754018</v>
+        <v>0.1806056552870807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.318752237503427</v>
+        <v>0.3111114863841342</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2356942580869733</v>
+        <v>0.2316320201033892</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.230943213983644</v>
+        <v>0.2324836830564328</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2862430146964547</v>
+        <v>0.2934202991709252</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1630673690448725</v>
+        <v>0.1629631847380445</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1805204257564558</v>
+        <v>0.1823240156587967</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1011927327805295</v>
+        <v>0.09898101775284218</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1279855811603457</v>
+        <v>0.127196397960105</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1801455812094535</v>
+        <v>0.1817883443133611</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.175590064443498</v>
+        <v>0.1731754547961596</v>
       </c>
     </row>
     <row r="19">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9311</v>
+        <v>10491</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7501</v>
+        <v>8117</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10696</v>
+        <v>11119</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3827</v>
+        <v>4369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11222</v>
+        <v>12249</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9506</v>
+        <v>9634</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16298</v>
+        <v>16467</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24550</v>
+        <v>26127</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21913</v>
+        <v>22596</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26501</v>
+        <v>27150</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6488</v>
+        <v>5574</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7815</v>
+        <v>6953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14361</v>
+        <v>14537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28477</v>
+        <v>28190</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25757</v>
+        <v>25568</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35213</v>
+        <v>35268</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22542</v>
+        <v>22143</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21677</v>
+        <v>22234</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16326</v>
+        <v>16188</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3936</v>
+        <v>3996</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4192</v>
+        <v>4396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9010</v>
+        <v>8911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29405</v>
+        <v>30360</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29173</v>
+        <v>30030</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29198</v>
+        <v>29591</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44130</v>
+        <v>44025</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43752</v>
+        <v>43678</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35519</v>
+        <v>34145</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15256</v>
+        <v>15709</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18308</v>
+        <v>17398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23475</v>
+        <v>23940</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54214</v>
+        <v>55387</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>55326</v>
+        <v>54707</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51702</v>
+        <v>53344</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17539</v>
+        <v>17813</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11589</v>
+        <v>11128</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22102</v>
+        <v>21974</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2020</v>
+        <v>2777</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1833</v>
+        <v>1024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20786</v>
+        <v>22144</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15967</v>
+        <v>15250</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25164</v>
+        <v>25932</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35933</v>
+        <v>35932</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30847</v>
+        <v>29709</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42731</v>
+        <v>41527</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10789</v>
+        <v>10697</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11545</v>
+        <v>10810</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9913</v>
+        <v>10577</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41840</v>
+        <v>41957</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36470</v>
+        <v>35587</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>46914</v>
+        <v>49032</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33803</v>
+        <v>32395</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13815</v>
+        <v>13791</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14271</v>
+        <v>15111</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13346</v>
+        <v>12849</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10734</v>
+        <v>10098</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11103</v>
+        <v>11101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>50186</v>
+        <v>51347</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28531</v>
+        <v>28366</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29668</v>
+        <v>29568</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55719</v>
+        <v>56258</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32264</v>
+        <v>31996</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32735</v>
+        <v>31875</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29585</v>
+        <v>28876</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26630</v>
+        <v>26171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27969</v>
+        <v>28156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>76370</v>
+        <v>78285</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52076</v>
+        <v>52043</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>53722</v>
+        <v>54259</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>33981</v>
+        <v>33239</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>120473</v>
+        <v>119730</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>60495</v>
+        <v>61046</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>165284</v>
+        <v>163011</v>
       </c>
     </row>
     <row r="24">
